--- a/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,51</t>
+          <t>0,7; 3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,21</t>
+          <t>1,57; 4,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,28</t>
+          <t>1,38; 3,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,04</t>
+          <t>2,95; 7,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,14</t>
+          <t>10,21; 14,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,48</t>
+          <t>7,4; 10,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,22</t>
+          <t>1,18; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,85</t>
+          <t>5,46; 9,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,41</t>
+          <t>3,89; 6,63</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,57</t>
+          <t>4,81; 10,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,64</t>
+          <t>7,14; 11,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,19</t>
+          <t>6,78; 10,3</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,15</t>
+          <t>3,33; 8,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,29</t>
+          <t>5,45; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,35</t>
+          <t>4,87; 8,43</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,03</t>
+          <t>4,22; 8,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,57; 20,09</t>
+          <t>13,69; 19,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 13,29</t>
+          <t>9,6; 13,31</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,69</t>
+          <t>4,61; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,94</t>
+          <t>6,17; 12,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,31</t>
+          <t>6,29; 10,32</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,14</t>
+          <t>10,5; 15,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,96; 25,11</t>
+          <t>19,83; 25,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,67; 19,65</t>
+          <t>15,59; 19,51</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,0</t>
+          <t>6,21; 7,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,74</t>
+          <t>11,27; 13,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,75</t>
+          <t>9,22; 10,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,38</t>
+          <t>0,76; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,33</t>
+          <t>1,5; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,16</t>
+          <t>1,37; 3,28</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,02</t>
+          <t>2,94; 7,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 14,86</t>
+          <t>10,19; 15,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,67</t>
+          <t>7,3; 10,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,15</t>
+          <t>1,28; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,68</t>
+          <t>5,47; 9,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,63</t>
+          <t>3,88; 6,41</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,7</t>
+          <t>4,67; 10,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 11,88</t>
+          <t>7,15; 11,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,3</t>
+          <t>6,72; 10,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,47</t>
+          <t>3,1; 8,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,29</t>
+          <t>5,7; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,43</t>
+          <t>4,98; 8,35</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,92</t>
+          <t>4,34; 9,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,79</t>
+          <t>13,57; 20,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,31</t>
+          <t>9,67; 13,29</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,14</t>
+          <t>4,66; 9,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,9</t>
+          <t>5,92; 12,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,32</t>
+          <t>6,47; 10,31</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,44</t>
+          <t>10,05; 15,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,83; 25,58</t>
+          <t>19,96; 25,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,59; 19,51</t>
+          <t>15,67; 19,65</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,98</t>
+          <t>6,23; 8,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,27; 13,67</t>
+          <t>11,36; 13,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,22; 10,74</t>
+          <t>9,35; 10,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,51</t>
+          <t>0,68; 3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,21</t>
+          <t>1,45; 4,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,28</t>
+          <t>1,29; 3,09</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,04</t>
+          <t>2,8; 6,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,14</t>
+          <t>10,05; 14,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,48</t>
+          <t>7,02; 10,09</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,22</t>
+          <t>1,22; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,85</t>
+          <t>5,37; 9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,41</t>
+          <t>3,76; 6,22</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,57</t>
+          <t>4,58; 10,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,64</t>
+          <t>4,78; 10,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,19</t>
+          <t>5,43; 9,44</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,15</t>
+          <t>3,07; 8,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,29</t>
+          <t>5,76; 10,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,35</t>
+          <t>5,0; 8,33</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,26%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,03</t>
+          <t>4,27; 8,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,57; 20,09</t>
+          <t>13,67; 20,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,67; 13,29</t>
+          <t>9,54; 13,08</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,69</t>
+          <t>4,61; 9,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,94</t>
+          <t>3,62; 12,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,31</t>
+          <t>5,06; 9,71</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,05; 15,14</t>
+          <t>4,7; 14,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,96; 25,11</t>
+          <t>20,22; 25,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,67; 19,65</t>
+          <t>9,76; 19,15</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,0</t>
+          <t>4,9; 7,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,74</t>
+          <t>9,58; 12,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,75</t>
+          <t>7,94; 9,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,28</t>
+          <t>0,69; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,11</t>
+          <t>1,51; 4,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,09</t>
+          <t>1,24; 3,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,77</t>
+          <t>2,89; 6,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 14,99</t>
+          <t>10,16; 15,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,09</t>
+          <t>6,86; 10,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,05</t>
+          <t>1,18; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,66</t>
+          <t>5,5; 9,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,22</t>
+          <t>3,76; 6,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,43</t>
+          <t>4,43; 10,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,38</t>
+          <t>4,25; 10,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,44</t>
+          <t>5,25; 9,56</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,14</t>
+          <t>3,09; 8,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,3</t>
+          <t>5,48; 10,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,33</t>
+          <t>5,02; 8,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,93</t>
+          <t>4,2; 8,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,17</t>
+          <t>13,86; 20,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,54; 13,08</t>
+          <t>9,42; 13,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,95</t>
+          <t>4,59; 9,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 12,16</t>
+          <t>3,95; 12,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,71</t>
+          <t>4,98; 9,68</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 14,51</t>
+          <t>4,61; 14,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,22; 25,4</t>
+          <t>20,26; 25,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,76; 19,15</t>
+          <t>9,51; 19,02</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,32</t>
+          <t>4,87; 7,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,88</t>
+          <t>9,3; 12,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,94; 9,99</t>
+          <t>7,91; 9,93</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que toma algún remedio para dormir (no medicamentos)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7410</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12247</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2162; 9933</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4385; 11962</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7467; 19001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23413</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>63799</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>87211</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14928; 34450</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52241; 77208</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70815; 104510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7068</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25635</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32703</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3732; 12450</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19210; 34862</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25042; 43271</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22084</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36529</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58614</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13848; 33009</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20205; 48877</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41346; 75388</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16168</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25253</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5516; 14677</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11414; 21044</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19421; 31986</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16546</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>42768</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>59314</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11338; 23952</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>35628; 51810</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>49632; 70665</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40611</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>72952</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>113562</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>28596; 58609</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>33485; 102711</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>73257; 142464</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>95273</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>162369</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>257642</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>42780; 134598</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>144973; 181368</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>156368; 312750</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>218916</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>427630</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>646547</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>168299; 252267</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>340066; 470832</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>563165; 706476</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>